--- a/extracted_excel/Isiolo_gendered_enterprise.xlsx
+++ b/extracted_excel/Isiolo_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Isiolo</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -142,10 +136,79 @@
     <t>What kinds of support (financial, technical, policy) would make it easier for women and marginalized groups to thrive?</t>
   </si>
   <si>
-    <t>No response provided</t>
-  </si>
-  <si>
-    <t>a. land, b. Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services c. Access to training and knowledge/extension d. Access to information as market, weather e. Access to technology eg ICT, digital gadgets, internet, digital literacy</t>
+    <t>High value crops for commercial purposes Market demand for the enterprise for both crops and livestock (Camel milk demand in Nairobi(Somali community) goats in highland areas, Cattle in ) Favorable climates ie onions and tomatoes, Livestock (browsers and grazers) Meeting local needs(Food and nutrition security)</t>
+  </si>
+  <si>
+    <t>Community were sensitized, and were included in the selection process ie for women Community participatory approach where enterprise ranking was done (pairwise selection) Factors considered included suitability, cost of production, profitability, Market, availability of farm inputs, Gender specific friendly enterprise(Camel-men Poultry-youth), Production technologies available, nutrition sensitivity, climate</t>
+  </si>
+  <si>
+    <t>Enterprise preference changes based on value and profitability Ie poultry used to be for women but now it is taken by other gender and youth Traditional preferences ie Camel and cattle belong to men but Milk belongs to women High Value Crop cultivation and market- Decision making done by Men Low value crops – decision making for women Youth prefer clean quick returns, technology driven enterprises, Agro-transportation and agro-marketing, Men and youth are the middlemen for enterprises</t>
+  </si>
+  <si>
+    <t>Onions – all gender (Land preparation- Men and youth Planting and weeding – women and youth Harvesting- youth and women transportation to market – youth market – youth and men Aggregators- both men and women) Tomatoes- all gender (Land preparation- Men and youth Planting and weeding – women and youth Harvesting- youth and women transportation to market – youth market – youth and men Aggregators – Majority women ) Vegetables(spinach and kales-everything is done by women except transportation ) Greengrams – Everything is done by women and youth Poultry – Women and youth Red meat – Men and youth Camel milk- Women</t>
+  </si>
+  <si>
+    <t>Maize Vegetables Poultry Legumes and pulses(Green grams, beans, etc) Value addition of the specific enterprises ie camel milk processing, tomatoes, camel meat(nyirnyir)</t>
+  </si>
+  <si>
+    <t>Tradition and culture norms Food and nutrition security Training and empowerment programs High tolerance Growth of farmer cooperatives and women groups Enabling environment (policy interventions from the government and partners, Program intervention, women governance groups) Ease of entry Networking and social capital</t>
+  </si>
+  <si>
+    <t>Traditional and culture norms (Samburu women cannot talk In front of men) Social responsibilities and reproductive roles Don’t own resources Limited access to financial services ie lack of collateral when accessing them</t>
+  </si>
+  <si>
+    <t>Onions – all gender (Land preparation- Men and youth Planting and weeding – women and youth Harvesting- youth and women transportation to market – youth market – youth and men Aggregators- both men and women) Tomatoes- all gender (Land preparation- Men and youth Planting and weeding – women and youth Harvesting- youth and women transportation to market – youth market – youth and men Aggregators – Majority women) Vegetables (spinach and kales-everything is done by women except transportation) Greengrams – Everything is done by women and youth Poultry – Women and youth Red meat – Men and youth Camel milk- Women</t>
+  </si>
+  <si>
+    <t>Men –labour intensive ,skills and experience required, value of the crop  Women – less skill and labour ,culture ,  Youth –Level of income ,quick money ,less time required Men –labour intensive ,skills and experience required, value of the crop  Women – less skill and labour ,culture ,  Youth –Level of income ,quick money ,less time required</t>
+  </si>
+  <si>
+    <t>Diversifying enterprises due to CC(Pastoralism to agropastoralism- women are adapting faster) Shifting to drought tolerant crops Use and availability of technology ie Modern Bee keeping on the ground by women Preferring goats and camel(more resilient) instead of cattle and sheep Shift to value addition of products to prolong the shell life</t>
+  </si>
+  <si>
+    <t>Preferring goats and camel (more resilient) instead of cattle and sheep Pastoralism to agropastoralism- women are adapting faster Briquet production to reduce tree cutting Agro processing of agriculture and livestock produce (tomato paste, nyirinyiri, yogurt ) Apiculture and aqua culture done by both genders</t>
+  </si>
+  <si>
+    <t>Limited access to digital smart phones Low Literacy levels Low time due to social responsibility Tradition and culture (all finance and technology by men )</t>
+  </si>
+  <si>
+    <t>a. land, Men control land b. Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services Men have easier access to formal finances, women access finances informally (vsla, chamas, table banking, merry go round) Religious norms affect access ie sharia compliant interest c. Access to training and knowledge/extension – Men have easy access, women don’t have easy access because of social responsibility, youth increasing because of technology (digital extension) rura d. Access to information as market, weather Men and youth easily access information on market and weather e. Access to technology eg ICT, digital gadgets, internet, digital literacy- Educated youth are more digital savvy (18-25) can easily access,</t>
+  </si>
+  <si>
+    <t>Onions tomatoes, Vegetable- High market demand Camel Milk and meat- High market demand Poultry - High market demand Green grams - High market demand Honey - High market demand</t>
+  </si>
+  <si>
+    <t>Competition for market from Onion imports from Tanzania and Ethiopia(cost of production is lower) Women tap more to this because of ease of entry, high tolerance, Enabling environment(policy) High season for tomatoes (tomato paste, tomato sauce) Sun dried Vegetables (Sukuma and spinach, traditional)</t>
+  </si>
+  <si>
+    <t>Tomato- High but affected market demand and competition Onion – High but affected market demand and competition Vegetables- Medium Camel Milk- High Camel meat(nyirinyiri)- Moderate</t>
+  </si>
+  <si>
+    <t>Male dominated have higher incomes compared to women dominated</t>
+  </si>
+  <si>
+    <t>Increased income to invest in education and other needs Food and nutrition security of the households Reduce social conflicts at household and community at large Low dependency syndrome Ownership of the enterprise which brings sustainability</t>
+  </si>
+  <si>
+    <t>Yes areas with the same climatic conditions</t>
+  </si>
+  <si>
+    <t>Having the necessary data and information about the value chain Diversification to more markets Improve capacity building Enabling environment through policies and interventions Invest in appropriate better technologies and innovation</t>
+  </si>
+  <si>
+    <t>Data on farmer registration done by National and county government together with KALRO</t>
+  </si>
+  <si>
+    <t>Gender policy Social protection policy Climate change policy Food and nutrition policy (National) Agriculture climate smart policy Draft policies – County Crops, Agriculture sector coordination mechanism, rangeland policy,</t>
+  </si>
+  <si>
+    <t>Women led cooperatives Isiolo voice of women network Self help groups CBOs, Local NGOs</t>
+  </si>
+  <si>
+    <t>Policy review Women access to finance and market Enhancing women literacy levels Women led enterprises fund Harmonized women specific enterprises</t>
+  </si>
+  <si>
+    <t>Training and capacity building Mentorship and coaching Advocacy for women led enterprises Allocation of funds for policy development Advocating for gender friendly technologies Access to formal financial services Women specific policies and interventions</t>
   </si>
 </sst>
 </file>
@@ -503,13 +566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,414 +582,312 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
       <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
